--- a/Flight Payload/Perovskite Performance/P1_Assembled/X018_PreSatellite/curve_0.0_0_Reverse.xlsx
+++ b/Flight Payload/Perovskite Performance/P1_Assembled/X018_PreSatellite/curve_0.0_0_Reverse.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Big-Red-Sat-1\Flight Payload\Perovskite Performance\P1_Assembled\X018_PreSatellite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561CEE47-AB36-4592-B3DB-B6539DE68882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,11 +99,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +113,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,28 +159,2462 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$2:$B$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>1.6068376068376069E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8205128205128208E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4273504273504277E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6410256410256415E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2854700854700861E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7675213675213679E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.41025641025641E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0529914529914531E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8564102564102573E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8205128205128213E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6239316239316238E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.427350427350427E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3914529914529917E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1948717948717942E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9982905982905981E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.801709401709402E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1124786324786325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12694017094017099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13979487179487179</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15425641025641029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16550427350427349</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17675213675213669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18639316239316239</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19603418803418801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2088888888888889</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.22013675213675221</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2297777777777778</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23941880341880339</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24905982905982901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25870085470085469</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26834188034188028</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27798290598290598</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.29887179487179488</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31976068376068378</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33743589743589741</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.3551111111111111</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37117948717948718</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38403418803418798</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.3968888888888889</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4081367521367521</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.42259829059829063</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.43545299145299149</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.44670085470085469</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.45955555555555561</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46919658119658131</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.48044444444444451</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.4900854700854701</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.49811965811965808</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.51418803418803416</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.52704273504273513</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.53829059829059833</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.55114529914529919</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.56078632478632484</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.57042735042735049</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58006837606837613</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.58970940170940178</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.59935042735042743</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.60738461538461541</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.6154188034188034</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.62345299145299149</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.63148717948717947</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.63791452991453002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64594871794871789</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.65237606837606843</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.66201709401709408</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.67005128205128206</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67969230769230771</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68611965811965814</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69254700854700857</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.698974358974359</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70540170940170932</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71182905982905986</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71664957264957263</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72307692307692306</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.72950427350427349</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.73432478632478626</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.73914529914529914</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.74396581196581191</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.74717948717948712</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.75682051282051277</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.76164102564102565</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.76646153846153842</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.7712820512820513</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.77610256410256406</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.77931623931623939</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.78252991452991449</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.78574358974358971</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.78895726495726504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.79217094017094014</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.79538461538461536</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.80020512820512824</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.80181196581196579</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.805025641025641</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.80663247863247856</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.80984615384615388</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.81466666666666665</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.81788034188034198</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.82109401709401708</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.8243076923076923</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.82752136752136751</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.83073504273504273</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.83234188034188039</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.8355555555555555</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.83716239316239316</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.83876923076923082</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.84198290598290604</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.84358974358974359</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.84519658119658114</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.84680341880341881</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.85001709401709402</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.85001709401709402</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.85162393162393168</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.85483760683760679</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.85644444444444445</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.85805128205128212</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.85965811965811967</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.86126495726495733</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.86287179487179488</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.86447863247863244</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.8660854700854701</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.86769230769230765</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.86929914529914531</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.86929914529914531</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.87090598290598298</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.87251282051282053</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.87251282051282053</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.87411965811965808</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.88858119658119661</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.90304273504273502</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.91429059829059833</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.92232478632478632</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.93035897435897441</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.93839316239316251</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.94321367521367527</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.9496410256410257</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.95446153846153847</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.95767521367521369</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.9608888888888889</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.96410256410256412</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.96731623931623933</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.968923076923077</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.97213675213675221</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.97374358974358977</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.97535042735042732</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.97695726495726498</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.97856410256410264</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.97856410256410264</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.9801709401709402</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.9801709401709402</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.98177777777777775</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.98177777777777775</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.98338461538461541</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.98338461538461541</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.98499145299145296</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.98499145299145296</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.98499145299145296</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.98659829059829052</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.98659829059829052</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.98659829059829052</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.98820512820512818</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.98659829059829052</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.98820512820512818</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.98820512820512818</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.98820512820512818</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.98820512820512818</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.98981196581196584</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.9914188034188034</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.99302564102564106</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.99463247863247861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$D$2:$D$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.111509855931761</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.839901065053191</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.975705460492481</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.839901065053191</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.839901065053191</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.839901065053191</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.839901065053191</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.839901065053191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.704096669613911</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.704096669613911</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.704096669613911</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.704096669613911</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.704096669613911</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.704096669613911</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.568292274174631</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27.568292274174631</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27.568292274174631</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.432487878735341</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.432487878735341</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.29668348329605</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.16087908785677</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.16087908785677</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.02507469241749</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.02507469241749</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.8892702969782</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.75346590153892</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>26.61766150609964</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26.48185711066035</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26.48185711066035</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.34605271522107</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.21024831978179</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.21024831978179</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26.0744439243425</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.80283513346394</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25.66703073802465</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.39542194714608</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25.123813156267509</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24.98800876082824</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24.85220436538895</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.716399969949659</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.580595574510379</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.308986783631809</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.173182388192529</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.037377992753239</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>23.901573597313959</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23.765769201874679</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23.629964806435389</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23.494160410996109</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23.358356015556819</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23.086747224678259</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.815138433799689</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22.679334038360409</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22.407725247481839</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22.271920852042559</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22.136116456603268</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.000312061163989</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.864507665724709</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21.728703270285411</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>21.457094479406859</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>21.321290083967561</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>21.185485688528281</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>21.049681293089002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20.913876897649711</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20.778072502210431</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.642268106771152</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20.370659315892581</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.963246129574731</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19.827441734135451</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19.555832943256881</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>19.420028547817591</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19.284224152378311</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19.14841975693902</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>19.012615361499741</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>18.74100657062117</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>18.605202175181891</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>18.4693977797426</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>18.33359338430332</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>18.197788988864041</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>18.06198459342475</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>17.92618019798547</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>17.79037580254619</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>17.6545714071069</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>17.51876701166762</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>17.38296261622834</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>17.24715822078905</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>17.11135382534977</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>16.97554942991048</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>16.8397450344712</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>16.70394063903192</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>16.70394063903192</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>16.56813624359263</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>16.43233184815335</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>16.296527452714059</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>16.16072305727478</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>16.16072305727478</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>16.0249186618355</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>16.0249186618355</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.30883075304982</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>11.271764821460559</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.5063076807498703</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.0124593309177481</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.7902197719641926</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.7037846084499222</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.8889582358142194</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.2099362586178</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.530914281421381</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.12350109510353</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.5802835133463939</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.1728703270285421</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.9012615361499741</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.629652745271406</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.358043954392838</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.0864351635142711</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.0864351635142711</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.81482637263570323</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.67902197719641921</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.67902197719641921</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.54321758175713553</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.54321758175713553</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.40741318631785162</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.40741318631785162</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.27160879087856782</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.27160879087856782</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.27160879087856782</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.13580439543928391</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F4F9-414E-B96B-56BCDC93340F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="750705216"/>
+        <c:axId val="760801008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="750705216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760801008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="760801008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750705216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909AB9A9-CB60-7C91-44B9-2355ED02D0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +2652,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,6 +2686,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,9 +2721,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,19 +2897,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +2919,7 @@
         <v>45220.62497635543</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,15 +2935,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +2951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,63 +2959,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001606837606837607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>MAX(Data!$B$2:$B$257)</f>
+        <v>0.99463247863247861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f>MAX(Data!$C$2:$C$257)</f>
+        <v>1.630467571644042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.7439658119658119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.370537958773253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.01963338532871</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <f>MAX(Data!$E$2:$E$257)</f>
+        <v>1.0196333853287101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>10196333.8532871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="3">
+        <f>(B12/((B8)*B9))</f>
+        <v>0.6287373276205197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.1757988595394327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3">
+        <f>(B12/B5)/B6</f>
+        <v>0.17579885953943275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,14 +3028,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,279 +3051,279 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.001606837606837607</v>
+        <v>1.6068376068376069E-3</v>
       </c>
       <c r="C2">
         <v>1.630467571644042</v>
       </c>
       <c r="D2">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E2">
-        <v>0.002619896610846837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>2.6198966108468371E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004820512820512821</v>
+        <v>4.8205128205128208E-3</v>
       </c>
       <c r="C3">
         <v>1.630467571644042</v>
       </c>
       <c r="D3">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E3">
-        <v>0.00785968983254051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>7.8596898325405101E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.006427350427350428</v>
+        <v>6.4273504273504277E-3</v>
       </c>
       <c r="C4">
         <v>1.630467571644042</v>
       </c>
       <c r="D4">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E4">
-        <v>0.01047958644338735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1.047958644338735E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009641025641025642</v>
+        <v>9.6410256410256415E-3</v>
       </c>
       <c r="C5">
         <v>1.630467571644042</v>
       </c>
       <c r="D5">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E5">
-        <v>0.01571937966508102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1.571937966508102E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01285470085470086</v>
+        <v>1.2854700854700861E-2</v>
       </c>
       <c r="C6">
         <v>1.630467571644042</v>
       </c>
       <c r="D6">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E6">
-        <v>0.02095917288677469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.095917288677469E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01767521367521368</v>
+        <v>1.7675213675213679E-2</v>
       </c>
       <c r="C7">
         <v>1.630467571644042</v>
       </c>
       <c r="D7">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E7">
-        <v>0.02881886271931521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>2.8818862719315209E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0241025641025641</v>
+        <v>2.41025641025641E-2</v>
       </c>
       <c r="C8">
         <v>1.630467571644042</v>
       </c>
       <c r="D8">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E8">
-        <v>0.03929844916270255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3.9298449162702552E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03052991452991453</v>
+        <v>3.0529914529914531E-2</v>
       </c>
       <c r="C9">
         <v>1.630467571644042</v>
       </c>
       <c r="D9">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E9">
-        <v>0.0497780356060899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>4.9778035606089899E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03856410256410257</v>
+        <v>3.8564102564102573E-2</v>
       </c>
       <c r="C10">
         <v>1.630467571644042</v>
       </c>
       <c r="D10">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E10">
-        <v>0.06287751866032408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>6.287751866032408E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.04820512820512821</v>
+        <v>4.8205128205128213E-2</v>
       </c>
       <c r="C11">
         <v>1.630467571644042</v>
       </c>
       <c r="D11">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E11">
-        <v>0.0785968983254051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>7.8596898325405104E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05623931623931624</v>
+        <v>5.6239316239316238E-2</v>
       </c>
       <c r="C12">
         <v>1.630467571644042</v>
       </c>
       <c r="D12">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E12">
-        <v>0.0916963813796393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>9.16963813796393E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.06427350427350427</v>
+        <v>6.427350427350427E-2</v>
       </c>
       <c r="C13">
         <v>1.630467571644042</v>
       </c>
       <c r="D13">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E13">
         <v>0.1047958644338735</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.07391452991452992</v>
+        <v>7.3914529914529917E-2</v>
       </c>
       <c r="C14">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D14">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E14">
         <v>0.1199330448520997</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.08194871794871794</v>
+        <v>8.1948717948717942E-2</v>
       </c>
       <c r="C15">
         <v>1.630467571644042</v>
       </c>
       <c r="D15">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E15">
         <v>0.1336147271531887</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08998290598290598</v>
+        <v>8.9982905982905981E-2</v>
       </c>
       <c r="C16">
         <v>1.630467571644042</v>
       </c>
       <c r="D16">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E16">
-        <v>0.1467142102074228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.14671421020742281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09801709401709402</v>
+        <v>9.801709401709402E-2</v>
       </c>
       <c r="C17">
         <v>1.630467571644042</v>
       </c>
       <c r="D17">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E17">
-        <v>0.159813693261657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.15981369326165701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -869,132 +3334,132 @@
         <v>1.630467571644042</v>
       </c>
       <c r="D18">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E18">
         <v>0.1833927627592786</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.126940170940171</v>
+        <v>0.12694017094017099</v>
       </c>
       <c r="C19">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D19">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E19">
-        <v>0.2059719683329538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.20597196833295381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1397948717948718</v>
+        <v>0.13979487179487179</v>
       </c>
       <c r="C20">
         <v>1.630467571644042</v>
       </c>
       <c r="D20">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E20">
-        <v>0.2279310051436748</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.22793100514367479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1542564102564103</v>
+        <v>0.15425641025641029</v>
       </c>
       <c r="C21">
         <v>1.630467571644042</v>
       </c>
       <c r="D21">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E21">
-        <v>0.2515100746412963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.25151007464129632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1655042735042735</v>
+        <v>0.16550427350427349</v>
       </c>
       <c r="C22">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D22">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E22">
-        <v>0.2685457308644841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.26854573086448408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1767521367521367</v>
+        <v>0.17675213675213669</v>
       </c>
       <c r="C23">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D23">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E23">
-        <v>0.286796411602847</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.28679641160284702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1863931623931624</v>
+        <v>0.18639316239316239</v>
       </c>
       <c r="C24">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D24">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E24">
-        <v>0.3024398522357296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.30243985223572961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.196034188034188</v>
+        <v>0.19603418803418801</v>
       </c>
       <c r="C25">
         <v>1.630467571644042</v>
       </c>
       <c r="D25">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E25">
-        <v>0.3196273865233141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.31962738652331413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1002,33 +3467,33 @@
         <v>0.2088888888888889</v>
       </c>
       <c r="C26">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D26">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E26">
-        <v>0.3389412137124556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.33894121371245561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.2201367521367522</v>
+        <v>0.22013675213675221</v>
       </c>
       <c r="C27">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D27">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E27">
-        <v>0.3571918944508186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.35719189445081861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1036,152 +3501,152 @@
         <v>0.2297777777777778</v>
       </c>
       <c r="C28">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D28">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E28">
-        <v>0.3728353350837011</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.37283533508370109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2394188034188034</v>
+        <v>0.23941880341880339</v>
       </c>
       <c r="C29">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D29">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E29">
-        <v>0.3884787757165837</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.38847877571658368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.249059829059829</v>
+        <v>0.24905982905982901</v>
       </c>
       <c r="C30">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D30">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E30">
-        <v>0.4041222163494662</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.40412221634946621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2587008547008547</v>
+        <v>0.25870085470085469</v>
       </c>
       <c r="C31">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D31">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E31">
-        <v>0.4197656569823489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.41976565698234891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.2683418803418803</v>
+        <v>0.26834188034188028</v>
       </c>
       <c r="C32">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D32">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E32">
-        <v>0.4354090976152314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.43540909761523139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.277982905982906</v>
+        <v>0.27798290598290598</v>
       </c>
       <c r="C33">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D33">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E33">
-        <v>0.451052538248114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.45105253824811398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2988717948717949</v>
+        <v>0.29887179487179488</v>
       </c>
       <c r="C34">
         <v>1.614714261773085</v>
       </c>
       <c r="D34">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E34">
-        <v>0.4825925496212073</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.48259254962120729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.3197606837606838</v>
+        <v>0.31976068376068378</v>
       </c>
       <c r="C35">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D35">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E35">
-        <v>0.5188407809906052</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.51884078099060515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.3374358974358974</v>
+        <v>0.33743589743589741</v>
       </c>
       <c r="C36">
         <v>1.614714261773085</v>
       </c>
       <c r="D36">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E36">
-        <v>0.5448625560239436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.54486255602394362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1192,47 +3657,47 @@
         <v>1.614714261773085</v>
       </c>
       <c r="D37">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E37">
-        <v>0.5734029756251978</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.57340297562519782</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.3711794871794872</v>
+        <v>0.37117948717948718</v>
       </c>
       <c r="C38">
         <v>1.614714261773085</v>
       </c>
       <c r="D38">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E38">
-        <v>0.599348811626338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.59934881162633802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.384034188034188</v>
+        <v>0.38403418803418798</v>
       </c>
       <c r="C39">
         <v>1.614714261773085</v>
       </c>
       <c r="D39">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E39">
-        <v>0.6201054804272502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.62010548042725022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1243,13 +3708,13 @@
         <v>1.614714261773085</v>
       </c>
       <c r="D40">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E40">
-        <v>0.6408621492281623</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.64086214922816231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1257,118 +3722,118 @@
         <v>0.4081367521367521</v>
       </c>
       <c r="C41">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D41">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E41">
-        <v>0.6558094820658922</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.65580948206589218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.4225982905982906</v>
+        <v>0.42259829059829063</v>
       </c>
       <c r="C42">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D42">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E42">
-        <v>0.6790468259186206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.67904682591862064</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4354529914529915</v>
+        <v>0.43545299145299149</v>
       </c>
       <c r="C43">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D43">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E43">
-        <v>0.6997022426766016</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.69970224267660164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4467008547008547</v>
+        <v>0.44670085470085469</v>
       </c>
       <c r="C44">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D44">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E44">
-        <v>0.7177757323398348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.71777573233983483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4595555555555556</v>
+        <v>0.45955555555555561</v>
       </c>
       <c r="C45">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D45">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E45">
-        <v>0.7384311490978158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.73843114909781582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4691965811965813</v>
+        <v>0.46919658119658131</v>
       </c>
       <c r="C46">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D46">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E46">
-        <v>0.7539227116663014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.75392271166630143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.4804444444444445</v>
+        <v>0.48044444444444451</v>
       </c>
       <c r="C47">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D47">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E47">
-        <v>0.7682119062249781</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.76821190622497815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1376,123 +3841,123 @@
         <v>0.4900854700854701</v>
       </c>
       <c r="C48">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D48">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E48">
-        <v>0.7836275297612654</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.78362752976126537</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4981196581196581</v>
+        <v>0.49811965811965808</v>
       </c>
       <c r="C49">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D49">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E49">
-        <v>0.7964738827081712</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.79647388270817121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5141880341880342</v>
+        <v>0.51418803418803416</v>
       </c>
       <c r="C50">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D50">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E50">
-        <v>0.818116506884732</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.81811650688473203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5270427350427351</v>
+        <v>0.52704273504273513</v>
       </c>
       <c r="C51">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D51">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E51">
         <v>0.8385694195568506</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5382905982905983</v>
+        <v>0.53829059829059833</v>
       </c>
       <c r="C52">
-        <v>1.583207642031171</v>
+        <v>1.5832076420311709</v>
       </c>
       <c r="D52">
         <v>27.29668348329605</v>
       </c>
       <c r="E52">
-        <v>0.8522257888472066</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.85222578884720657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5511452991452992</v>
+        <v>0.55114529914529919</v>
       </c>
       <c r="C53">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D53">
         <v>27.16087908785677</v>
       </c>
       <c r="E53">
-        <v>0.8682362681357151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.86823626813571508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5607863247863248</v>
+        <v>0.56078632478632484</v>
       </c>
       <c r="C54">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D54">
         <v>27.16087908785677</v>
       </c>
       <c r="E54">
-        <v>0.8834240745754069</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.88342407457540695</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5704273504273505</v>
+        <v>0.57042735042735049</v>
       </c>
       <c r="C55">
         <v>1.567454332160215</v>
@@ -1501,15 +3966,15 @@
         <v>27.02507469241749</v>
       </c>
       <c r="E55">
-        <v>0.8941188216100234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.89411882161002343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5800683760683761</v>
+        <v>0.58006837606837613</v>
       </c>
       <c r="C56">
         <v>1.567454332160215</v>
@@ -1521,29 +3986,29 @@
         <v>0.9092306890175168</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5897094017094018</v>
+        <v>0.58970940170940178</v>
       </c>
       <c r="C57">
-        <v>1.559577677224736</v>
+        <v>1.5595776772247361</v>
       </c>
       <c r="D57">
         <v>26.8892702969782</v>
       </c>
       <c r="E57">
-        <v>0.9196976189555375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.91969761895553748</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5993504273504274</v>
+        <v>0.59935042735042743</v>
       </c>
       <c r="C58">
         <v>1.551701022289258</v>
@@ -1552,15 +4017,15 @@
         <v>26.75346590153892</v>
       </c>
       <c r="E58">
-        <v>0.9300126708291616</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.93001267082916161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6073846153846154</v>
+        <v>0.60738461538461541</v>
       </c>
       <c r="C59">
         <v>1.543824367353779</v>
@@ -1572,7 +4037,7 @@
         <v>0.9376951695865724</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1586,15 +4051,15 @@
         <v>26.48185711066035</v>
       </c>
       <c r="E60">
-        <v>0.9452511032903189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.94525110329031892</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6234529914529915</v>
+        <v>0.62345299145299149</v>
       </c>
       <c r="C61">
         <v>1.535947712418301</v>
@@ -1603,15 +4068,15 @@
         <v>26.48185711066035</v>
       </c>
       <c r="E61">
-        <v>0.9575911960225686</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.95759119602256859</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6314871794871795</v>
+        <v>0.63148717948717947</v>
       </c>
       <c r="C62">
         <v>1.528071057482822</v>
@@ -1620,49 +4085,49 @@
         <v>26.34605271522107</v>
       </c>
       <c r="E62">
-        <v>0.9649572821458191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.96495728214581911</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.63791452991453</v>
+        <v>0.63791452991453002</v>
       </c>
       <c r="C63">
-        <v>1.520194402547344</v>
+        <v>1.5201944025473439</v>
       </c>
       <c r="D63">
         <v>26.21024831978179</v>
       </c>
       <c r="E63">
-        <v>0.9697540976796887</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.96975409767968868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6459487179487179</v>
+        <v>0.64594871794871789</v>
       </c>
       <c r="C64">
-        <v>1.520194402547344</v>
+        <v>1.5201944025473439</v>
       </c>
       <c r="D64">
         <v>26.21024831978179</v>
       </c>
       <c r="E64">
-        <v>0.981967625358274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.98196762535827398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6523760683760684</v>
+        <v>0.65237606837606843</v>
       </c>
       <c r="C65">
         <v>1.512317747611865</v>
@@ -1671,15 +4136,15 @@
         <v>26.0744439243425</v>
       </c>
       <c r="E65">
-        <v>0.9865999063223799</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.98659990632237993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6620170940170941</v>
+        <v>0.66201709401709408</v>
       </c>
       <c r="C66">
         <v>1.496564437740908</v>
@@ -1688,66 +4153,66 @@
         <v>25.80283513346394</v>
       </c>
       <c r="E66">
-        <v>0.9907512400825625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.99075124008256255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6700512820512821</v>
+        <v>0.67005128205128206</v>
       </c>
       <c r="C67">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D67">
         <v>25.66703073802465</v>
       </c>
       <c r="E67">
-        <v>0.9974971574428588</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.99749715744285883</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6796923076923077</v>
+        <v>0.67969230769230771</v>
       </c>
       <c r="C68">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D68">
         <v>25.39542194714608</v>
       </c>
       <c r="E68">
-        <v>1.001142230988385</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>1.0011422309883851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6861196581196581</v>
+        <v>0.68611965811965814</v>
       </c>
       <c r="C69">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D69">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E69">
-        <v>0.9998006414195453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.99980064141954528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6925470085470086</v>
+        <v>0.69254700854700857</v>
       </c>
       <c r="C70">
         <v>1.449304508128038</v>
@@ -1759,7 +4224,7 @@
         <v>1.003711501577766</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1767,7 +4232,7 @@
         <v>0.698974358974359</v>
       </c>
       <c r="C71">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D71">
         <v>24.85220436538895</v>
@@ -1776,160 +4241,160 @@
         <v>1.007521109693055</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7054017094017093</v>
+        <v>0.70540170940170932</v>
       </c>
       <c r="C72">
         <v>1.433551198257081</v>
       </c>
       <c r="D72">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E72">
-        <v>1.011229465765413</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>1.0112294657654131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7118290598290599</v>
+        <v>0.71182905982905986</v>
       </c>
       <c r="C73">
         <v>1.425674543321602</v>
       </c>
       <c r="D73">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E73">
         <v>1.01483656979484</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7166495726495726</v>
+        <v>0.71664957264957263</v>
       </c>
       <c r="C74">
         <v>1.409921233450645</v>
       </c>
       <c r="D74">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E74">
-        <v>1.010419449421963</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>1.0104194494219629</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7230769230769231</v>
+        <v>0.72307692307692306</v>
       </c>
       <c r="C75">
         <v>1.402044578515167</v>
       </c>
       <c r="D75">
-        <v>24.17318238819253</v>
+        <v>24.173182388192529</v>
       </c>
       <c r="E75">
         <v>1.013786079849428</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7295042735042735</v>
+        <v>0.72950427350427349</v>
       </c>
       <c r="C76">
         <v>1.394167923579688</v>
       </c>
       <c r="D76">
-        <v>24.03737799275324</v>
+        <v>24.037377992753239</v>
       </c>
       <c r="E76">
         <v>1.017051458233962</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7343247863247863</v>
+        <v>0.73432478632478626</v>
       </c>
       <c r="C77">
-        <v>1.38629126864421</v>
+        <v>1.3862912686442099</v>
       </c>
       <c r="D77">
-        <v>23.90157359731396</v>
+        <v>23.901573597313959</v>
       </c>
       <c r="E77">
-        <v>1.017988039631076</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>1.0179880396310761</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7391452991452991</v>
+        <v>0.73914529914529914</v>
       </c>
       <c r="C78">
         <v>1.378414613708731</v>
       </c>
       <c r="D78">
-        <v>23.76576920187468</v>
+        <v>23.765769201874679</v>
       </c>
       <c r="E78">
-        <v>1.018848681995992</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>1.0188486819959921</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7439658119658119</v>
+        <v>0.74396581196581191</v>
       </c>
       <c r="C79">
-        <v>1.370537958773253</v>
+        <v>1.3705379587732529</v>
       </c>
       <c r="D79">
-        <v>23.62996480643539</v>
+        <v>23.629964806435389</v>
       </c>
       <c r="E79">
-        <v>1.01963338532871</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>1.0196333853287101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7471794871794871</v>
+        <v>0.74717948717948712</v>
       </c>
       <c r="C80">
         <v>1.362661303837774</v>
       </c>
       <c r="D80">
-        <v>23.49416041099611</v>
+        <v>23.494160410996109</v>
       </c>
       <c r="E80">
         <v>1.018152574200839</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1937,67 +4402,67 @@
         <v>0.752</v>
       </c>
       <c r="C81">
-        <v>1.354784648902296</v>
+        <v>1.3547846489022961</v>
       </c>
       <c r="D81">
-        <v>23.35835601555682</v>
+        <v>23.358356015556819</v>
       </c>
       <c r="E81">
         <v>1.018798055974526</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7568205128205128</v>
+        <v>0.75682051282051277</v>
       </c>
       <c r="C82">
-        <v>1.339031339031339</v>
+        <v>1.3390313390313391</v>
       </c>
       <c r="D82">
-        <v>23.08674722467826</v>
+        <v>23.086747224678259</v>
       </c>
       <c r="E82">
         <v>1.013406384688436</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7616410256410256</v>
+        <v>0.76164102564102565</v>
       </c>
       <c r="C83">
-        <v>1.323278029160382</v>
+        <v>1.3232780291603821</v>
       </c>
       <c r="D83">
-        <v>22.81513843379969</v>
+        <v>22.815138433799689</v>
       </c>
       <c r="E83">
         <v>1.007862835337948</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7664615384615384</v>
+        <v>0.76646153846153842</v>
       </c>
       <c r="C84">
         <v>1.315401374224904</v>
       </c>
       <c r="D84">
-        <v>22.67933403836041</v>
+        <v>22.679334038360409</v>
       </c>
       <c r="E84">
-        <v>1.008204560982841</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>1.0082045609828409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2008,166 +4473,166 @@
         <v>1.299648064353947</v>
       </c>
       <c r="D85">
-        <v>22.40772524748184</v>
+        <v>22.407725247481839</v>
       </c>
       <c r="E85">
-        <v>1.002395225019659</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>1.0023952250196591</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7761025641025641</v>
+        <v>0.77610256410256406</v>
       </c>
       <c r="C86">
         <v>1.291771409418468</v>
       </c>
       <c r="D86">
-        <v>22.27192085204256</v>
+        <v>22.271920852042559</v>
       </c>
       <c r="E86">
         <v>1.002547103084056</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7793162393162394</v>
+        <v>0.77931623931623939</v>
       </c>
       <c r="C87">
         <v>1.28389475448299</v>
       </c>
       <c r="D87">
-        <v>22.13611645660327</v>
+        <v>22.136116456603268</v>
       </c>
       <c r="E87">
         <v>1.00056003174153</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7825299145299145</v>
+        <v>0.78252991452991449</v>
       </c>
       <c r="C88">
         <v>1.276018099547511</v>
       </c>
       <c r="D88">
-        <v>22.00031206116399</v>
+        <v>22.000312061163989</v>
       </c>
       <c r="E88">
         <v>0.9985223343775379</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7857435897435897</v>
+        <v>0.78574358974358971</v>
       </c>
       <c r="C89">
-        <v>1.268141444612033</v>
+        <v>1.2681414446120329</v>
       </c>
       <c r="D89">
-        <v>21.86450766572471</v>
+        <v>21.864507665724709</v>
       </c>
       <c r="E89">
         <v>0.9964340109920804</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.788957264957265</v>
+        <v>0.78895726495726504</v>
       </c>
       <c r="C90">
         <v>1.260264789676554</v>
       </c>
       <c r="D90">
-        <v>21.72870327028541</v>
+        <v>21.728703270285411</v>
       </c>
       <c r="E90">
-        <v>0.994295061585157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.99429506158515701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7921709401709401</v>
+        <v>0.79217094017094014</v>
       </c>
       <c r="C91">
-        <v>1.244511479805598</v>
+        <v>1.2445114798055981</v>
       </c>
       <c r="D91">
-        <v>21.45709447940686</v>
+        <v>21.457094479406859</v>
       </c>
       <c r="E91">
-        <v>0.9858658290111283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.98586582901112829</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7953846153846154</v>
+        <v>0.79538461538461536</v>
       </c>
       <c r="C92">
-        <v>1.236634824870119</v>
+        <v>1.2366348248701191</v>
       </c>
       <c r="D92">
-        <v>21.32129008396756</v>
+        <v>21.321290083967561</v>
       </c>
       <c r="E92">
-        <v>0.9836003145505405</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.98360031455054053</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8002051282051282</v>
+        <v>0.80020512820512824</v>
       </c>
       <c r="C93">
         <v>1.228758169934641</v>
       </c>
       <c r="D93">
-        <v>21.18548568852828</v>
+        <v>21.185485688528281</v>
       </c>
       <c r="E93">
-        <v>0.9832585889056479</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.98325858890564788</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.8018119658119658</v>
+        <v>0.80181196581196579</v>
       </c>
       <c r="C94">
-        <v>1.220881514999162</v>
+        <v>1.2208815149991621</v>
       </c>
       <c r="D94">
-        <v>21.049681293089</v>
+        <v>21.049681293089002</v>
       </c>
       <c r="E94">
-        <v>0.9789174075649689</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.97891740756496892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2178,98 +4643,98 @@
         <v>1.213004860063684</v>
       </c>
       <c r="D95">
-        <v>20.91387689764971</v>
+        <v>20.913876897649711</v>
       </c>
       <c r="E95">
-        <v>0.9765000150399848</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.97650001503998485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8066324786324786</v>
+        <v>0.80663247863247856</v>
       </c>
       <c r="C96">
-        <v>1.205128205128205</v>
+        <v>1.2051282051282051</v>
       </c>
       <c r="D96">
-        <v>20.77807250221043</v>
+        <v>20.778072502210431</v>
       </c>
       <c r="E96">
-        <v>0.9720955511724743</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.97209555117247426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.8098461538461539</v>
+        <v>0.80984615384615388</v>
       </c>
       <c r="C97">
         <v>1.197251550192727</v>
       </c>
       <c r="D97">
-        <v>20.64226810677115</v>
+        <v>20.642268106771152</v>
       </c>
       <c r="E97">
-        <v>0.9695895631099253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.96958956310992528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.8146666666666667</v>
+        <v>0.81466666666666665</v>
       </c>
       <c r="C98">
         <v>1.18149824032177</v>
       </c>
       <c r="D98">
-        <v>20.37065931589258</v>
+        <v>20.370659315892581</v>
       </c>
       <c r="E98">
-        <v>0.9625272331154686</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.96252723311546862</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.817880341880342</v>
+        <v>0.81788034188034198</v>
       </c>
       <c r="C99">
         <v>1.157868275515334</v>
       </c>
       <c r="D99">
-        <v>19.96324612957473</v>
+        <v>19.963246129574731</v>
       </c>
       <c r="E99">
-        <v>0.9469977010308838</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.94699770103088377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.8210940170940171</v>
+        <v>0.82109401709401708</v>
       </c>
       <c r="C100">
-        <v>1.149991620579856</v>
+        <v>1.1499916205798559</v>
       </c>
       <c r="D100">
-        <v>19.82744173413545</v>
+        <v>19.827441734135451</v>
       </c>
       <c r="E100">
-        <v>0.9442512393663727</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.94425123936637267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2277,67 +4742,67 @@
         <v>0.8243076923076923</v>
       </c>
       <c r="C101">
-        <v>1.134238310708899</v>
+        <v>1.1342383107088989</v>
       </c>
       <c r="D101">
-        <v>19.55583294325688</v>
+        <v>19.555832943256881</v>
       </c>
       <c r="E101">
-        <v>0.9349613644274277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.93496136442742772</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.8275213675213675</v>
+        <v>0.82752136752136751</v>
       </c>
       <c r="C102">
-        <v>1.126361655773421</v>
+        <v>1.1263616557734211</v>
       </c>
       <c r="D102">
-        <v>19.42002854781759</v>
+        <v>19.420028547817591</v>
       </c>
       <c r="E102">
-        <v>0.9320883377092528</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.93208833770925281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.8307350427350427</v>
+        <v>0.83073504273504273</v>
       </c>
       <c r="C103">
-        <v>1.118485000837942</v>
+        <v>1.1184850008379419</v>
       </c>
       <c r="D103">
-        <v>19.28422415237831</v>
+        <v>19.284224152378311</v>
       </c>
       <c r="E103">
-        <v>0.9291646849696119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.92916468496961191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.8323418803418804</v>
+        <v>0.83234188034188039</v>
       </c>
       <c r="C104">
-        <v>1.110608345902463</v>
+        <v>1.1106083459024629</v>
       </c>
       <c r="D104">
         <v>19.14841975693902</v>
       </c>
       <c r="E104">
-        <v>0.9244058389518419</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>0.92440583895184192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2345,55 +4810,55 @@
         <v>0.8355555555555555</v>
       </c>
       <c r="C105">
-        <v>1.102731690966985</v>
+        <v>1.1027316909669851</v>
       </c>
       <c r="D105">
-        <v>19.01261536149974</v>
+        <v>19.012615361499741</v>
       </c>
       <c r="E105">
-        <v>0.9213935906746363</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>0.92139359067463633</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.8371623931623932</v>
+        <v>0.83716239316239316</v>
       </c>
       <c r="C106">
-        <v>1.086978381096028</v>
+        <v>1.0869783810960281</v>
       </c>
       <c r="D106">
         <v>18.74100657062117</v>
       </c>
       <c r="E106">
-        <v>0.9099774228341346</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>0.90997742283413463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.8387692307692308</v>
+        <v>0.83876923076923082</v>
       </c>
       <c r="C107">
         <v>1.07910172616055</v>
       </c>
       <c r="D107">
-        <v>18.60520217518189</v>
+        <v>18.605202175181891</v>
       </c>
       <c r="E107">
-        <v>0.9051173247734337</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>0.90511732477343365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.841982905982906</v>
+        <v>0.84198290598290604</v>
       </c>
       <c r="C108">
         <v>1.071225071225071</v>
@@ -2402,15 +4867,15 @@
         <v>18.4693977797426</v>
       </c>
       <c r="E108">
-        <v>0.9019531984318309</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>0.90195319843183086</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.8435897435897436</v>
+        <v>0.84358974358974359</v>
       </c>
       <c r="C109">
         <v>1.063348416289593</v>
@@ -2419,32 +4884,32 @@
         <v>18.33359338430332</v>
       </c>
       <c r="E109">
-        <v>0.8970298178442975</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>0.89702981784429747</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.8451965811965811</v>
+        <v>0.84519658119658114</v>
       </c>
       <c r="C110">
         <v>1.055471761354114</v>
       </c>
       <c r="D110">
-        <v>18.19778898886404</v>
+        <v>18.197788988864041</v>
       </c>
       <c r="E110">
-        <v>0.8920811242460314</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>0.89208112424603137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.8468034188034188</v>
+        <v>0.84680341880341881</v>
       </c>
       <c r="C111">
         <v>1.047595106418636</v>
@@ -2453,15 +4918,15 @@
         <v>18.06198459342475</v>
       </c>
       <c r="E111">
-        <v>0.8871071176370321</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>0.88710711763703209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.850017094017094</v>
+        <v>0.85001709401709402</v>
       </c>
       <c r="C112">
         <v>1.039718451483157</v>
@@ -2470,32 +4935,32 @@
         <v>17.92618019798547</v>
       </c>
       <c r="E112">
-        <v>0.8837784567256665</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>0.88377845672566646</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.850017094017094</v>
+        <v>0.85001709401709402</v>
       </c>
       <c r="C113">
-        <v>1.031841796547679</v>
+        <v>1.0318417965476789</v>
       </c>
       <c r="D113">
         <v>17.79037580254619</v>
       </c>
       <c r="E113">
-        <v>0.8770831653868356</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>0.87708316538683562</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.8516239316239317</v>
+        <v>0.85162393162393168</v>
       </c>
       <c r="C114">
         <v>1.0239651416122</v>
@@ -2504,129 +4969,129 @@
         <v>17.6545714071069</v>
       </c>
       <c r="E114">
-        <v>0.8720332197456381</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>0.87203321974563808</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.8548376068376068</v>
+        <v>0.85483760683760679</v>
       </c>
       <c r="C115">
-        <v>1.016088486676722</v>
+        <v>1.0160884866767219</v>
       </c>
       <c r="D115">
         <v>17.51876701166762</v>
       </c>
       <c r="E115">
-        <v>0.8685906502859745</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>0.86859065028597449</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.8564444444444445</v>
+        <v>0.85644444444444445</v>
       </c>
       <c r="C116">
-        <v>1.008211831741244</v>
+        <v>1.0082118317412441</v>
       </c>
       <c r="D116">
         <v>17.38296261622834</v>
       </c>
       <c r="E116">
-        <v>0.8634774221179451</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>0.86347742211794509</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.8580512820512821</v>
+        <v>0.85805128205128212</v>
       </c>
       <c r="C117">
-        <v>1.000335176805765</v>
+        <v>1.0003351768057649</v>
       </c>
       <c r="D117">
         <v>17.24715822078905</v>
       </c>
       <c r="E117">
-        <v>0.8583388809391825</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>0.85833888093918254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.8596581196581197</v>
+        <v>0.85965811965811967</v>
       </c>
       <c r="C118">
-        <v>0.9924585218702867</v>
+        <v>0.99245852187028671</v>
       </c>
       <c r="D118">
         <v>17.11135382534977</v>
       </c>
       <c r="E118">
-        <v>0.8531750267496875</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>0.85317502674968748</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.8612649572649573</v>
+        <v>0.86126495726495733</v>
       </c>
       <c r="C119">
-        <v>0.984581866934808</v>
+        <v>0.98458186693480798</v>
       </c>
       <c r="D119">
         <v>16.97554942991048</v>
       </c>
       <c r="E119">
-        <v>0.8479858595494593</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>0.84798585954945926</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.8628717948717949</v>
+        <v>0.86287179487179488</v>
       </c>
       <c r="C120">
-        <v>0.9767052119993296</v>
+        <v>0.97670521199932958</v>
       </c>
       <c r="D120">
         <v>16.8397450344712</v>
       </c>
       <c r="E120">
-        <v>0.8427713793384984</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>0.84277137933849844</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.8644786324786324</v>
+        <v>0.86447863247863244</v>
       </c>
       <c r="C121">
-        <v>0.9688285570638512</v>
+        <v>0.96882855706385118</v>
       </c>
       <c r="D121">
         <v>16.70394063903192</v>
       </c>
       <c r="E121">
-        <v>0.8375315861168048</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>0.83753158611680478</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2634,92 +5099,92 @@
         <v>0.8660854700854701</v>
       </c>
       <c r="C122">
-        <v>0.9688285570638512</v>
+        <v>0.96882855706385118</v>
       </c>
       <c r="D122">
         <v>16.70394063903192</v>
       </c>
       <c r="E122">
-        <v>0.8390883362768733</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>0.83908833627687329</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.8676923076923077</v>
+        <v>0.86769230769230765</v>
       </c>
       <c r="C123">
-        <v>0.9609519021283728</v>
+        <v>0.96095190212837278</v>
       </c>
       <c r="D123">
         <v>16.56813624359263</v>
       </c>
       <c r="E123">
-        <v>0.8338105735390804</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>0.83381057353908039</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8692991452991453</v>
+        <v>0.86929914529914531</v>
       </c>
       <c r="C124">
-        <v>0.9530752471928943</v>
+        <v>0.95307524719289427</v>
       </c>
       <c r="D124">
         <v>16.43233184815335</v>
       </c>
       <c r="E124">
-        <v>0.8285074977905547</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>0.82850749779055466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8692991452991453</v>
+        <v>0.86929914529914531</v>
       </c>
       <c r="C125">
-        <v>0.9451985922574158</v>
+        <v>0.94519859225741576</v>
       </c>
       <c r="D125">
-        <v>16.29652745271406</v>
+        <v>16.296527452714059</v>
       </c>
       <c r="E125">
-        <v>0.8216603283873268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>0.82166032838732683</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.870905982905983</v>
+        <v>0.87090598290598298</v>
       </c>
       <c r="C126">
-        <v>0.9373219373219374</v>
+        <v>0.93732193732193736</v>
       </c>
       <c r="D126">
         <v>16.16072305727478</v>
       </c>
       <c r="E126">
-        <v>0.8163192831227021</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>0.81631928312270208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8725128205128205</v>
+        <v>0.87251282051282053</v>
       </c>
       <c r="C127">
-        <v>0.9373219373219374</v>
+        <v>0.93732193732193736</v>
       </c>
       <c r="D127">
         <v>16.16072305727478</v>
@@ -2728,49 +5193,49 @@
         <v>0.8178254072613047</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8725128205128205</v>
+        <v>0.87251282051282053</v>
       </c>
       <c r="C128">
-        <v>0.9294452823864588</v>
+        <v>0.92944528238645885</v>
       </c>
       <c r="D128">
         <v>16.0249186618355</v>
       </c>
       <c r="E128">
-        <v>0.8109529248473442</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>0.81095292484734416</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.8741196581196581</v>
+        <v>0.87411965811965808</v>
       </c>
       <c r="C129">
-        <v>0.9294452823864588</v>
+        <v>0.92944528238645885</v>
       </c>
       <c r="D129">
         <v>16.0249186618355</v>
       </c>
       <c r="E129">
-        <v>0.8124463924805805</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>0.81244639248058048</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.8885811965811966</v>
+        <v>0.88858119658119661</v>
       </c>
       <c r="C130">
-        <v>0.7719121836768896</v>
+        <v>0.77191218367688963</v>
       </c>
       <c r="D130">
         <v>13.30883075304982</v>
@@ -2779,109 +5244,109 @@
         <v>0.685906651827215</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.903042735042735</v>
+        <v>0.90304273504273502</v>
       </c>
       <c r="C131">
-        <v>0.6537623596447125</v>
+        <v>0.65376235964471252</v>
       </c>
       <c r="D131">
-        <v>11.27176482146056</v>
+        <v>11.271764821460559</v>
       </c>
       <c r="E131">
-        <v>0.5903753493215533</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>0.59037534932155333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.9142905982905983</v>
+        <v>0.91429059829059833</v>
       </c>
       <c r="C132">
-        <v>0.5513658454834925</v>
+        <v>0.55136584548349254</v>
       </c>
       <c r="D132">
-        <v>9.50630768074987</v>
+        <v>9.5063076807498703</v>
       </c>
       <c r="E132">
-        <v>0.504108608744104</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>0.50410860874410401</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.9223247863247863</v>
+        <v>0.92232478632478632</v>
       </c>
       <c r="C133">
-        <v>0.4647226411932294</v>
+        <v>0.46472264119322942</v>
       </c>
       <c r="D133">
-        <v>8.012459330917748</v>
+        <v>8.0124593309177481</v>
       </c>
       <c r="E133">
-        <v>0.4286252107388357</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>0.42862521073883569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.9303589743589744</v>
+        <v>0.93035897435897441</v>
       </c>
       <c r="C134">
-        <v>0.3938327467739232</v>
+        <v>0.39383274677392321</v>
       </c>
       <c r="D134">
-        <v>6.790219771964193</v>
+        <v>6.7902197719641926</v>
       </c>
       <c r="E134">
-        <v>0.3664058303575649</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>0.36640583035756491</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.9383931623931625</v>
+        <v>0.93839316239316251</v>
       </c>
       <c r="C135">
-        <v>0.3308195072900955</v>
+        <v>0.33081950729009552</v>
       </c>
       <c r="D135">
-        <v>5.703784608449922</v>
+        <v>5.7037846084499222</v>
       </c>
       <c r="E135">
-        <v>0.3104387636273006</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>0.31043876362730061</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.9432136752136753</v>
+        <v>0.94321367521367527</v>
       </c>
       <c r="C136">
-        <v>0.2835595776772247</v>
+        <v>0.28355957767722467</v>
       </c>
       <c r="D136">
-        <v>4.888958235814219</v>
+        <v>4.8889582358142194</v>
       </c>
       <c r="E136">
-        <v>0.2674572714029728</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>0.26745727140297282</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2895,32 +5360,32 @@
         <v>4.2099362586178</v>
       </c>
       <c r="E137">
-        <v>0.2318798348179947</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>0.23187983481799471</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.9544615384615385</v>
+        <v>0.95446153846153847</v>
       </c>
       <c r="C138">
-        <v>0.2047930283224401</v>
+        <v>0.20479302832244009</v>
       </c>
       <c r="D138">
         <v>3.530914281421381</v>
       </c>
       <c r="E138">
-        <v>0.1954670688788336</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>0.19546706887883361</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.9576752136752137</v>
+        <v>0.95767521367521369</v>
       </c>
       <c r="C139">
         <v>0.1811630635160047</v>
@@ -2929,10 +5394,10 @@
         <v>3.12350109510353</v>
       </c>
       <c r="E139">
-        <v>0.1734953755627461</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>0.17349537556274611</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2940,50 +5405,50 @@
         <v>0.9608888888888889</v>
       </c>
       <c r="C140">
-        <v>0.1496564437740908</v>
+        <v>0.14965644377409079</v>
       </c>
       <c r="D140">
-        <v>2.580283513346394</v>
+        <v>2.5802835133463939</v>
       </c>
       <c r="E140">
         <v>0.1438032139731486</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.9641025641025641</v>
+        <v>0.96410256410256412</v>
       </c>
       <c r="C141">
-        <v>0.1260264789676555</v>
+        <v>0.12602647896765551</v>
       </c>
       <c r="D141">
-        <v>2.172870327028542</v>
+        <v>2.1728703270285421</v>
       </c>
       <c r="E141">
         <v>0.1215024515175345</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C142">
         <v>0.1102731690966985</v>
       </c>
       <c r="D142">
-        <v>1.901261536149974</v>
+        <v>1.9012615361499741</v>
       </c>
       <c r="E142">
-        <v>0.1066690272281021</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>0.10666902722810211</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2991,118 +5456,118 @@
         <v>0.968923076923077</v>
       </c>
       <c r="C143">
-        <v>0.09451985922574158</v>
+        <v>9.4519859225741576E-2</v>
       </c>
       <c r="D143">
         <v>1.629652745271406</v>
       </c>
       <c r="E143">
-        <v>0.09158247283134162</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>9.1582472831341619E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C144">
-        <v>0.07876654935478464</v>
+        <v>7.8766549354784637E-2</v>
       </c>
       <c r="D144">
         <v>1.358043954392838</v>
       </c>
       <c r="E144">
-        <v>0.07657185746677954</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>7.6571857466779539E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C145">
-        <v>0.06301323948382773</v>
+        <v>6.3013239483827727E-2</v>
       </c>
       <c r="D145">
-        <v>1.086435163514271</v>
+        <v>1.0864351635142711</v>
       </c>
       <c r="E145">
-        <v>0.06135873801635492</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>6.135873801635492E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.9753504273504273</v>
+        <v>0.97535042735042732</v>
       </c>
       <c r="C146">
-        <v>0.06301323948382773</v>
+        <v>6.3013239483827727E-2</v>
       </c>
       <c r="D146">
-        <v>1.086435163514271</v>
+        <v>1.0864351635142711</v>
       </c>
       <c r="E146">
-        <v>0.06145999005928619</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>6.1459990059286193E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.976957264957265</v>
+        <v>0.97695726495726498</v>
       </c>
       <c r="C147">
-        <v>0.04725992961287079</v>
+        <v>4.7259929612870788E-2</v>
       </c>
       <c r="D147">
-        <v>0.8148263726357032</v>
+        <v>0.81482637263570323</v>
       </c>
       <c r="E147">
-        <v>0.0461709315766631</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>4.6170931576663098E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.9785641025641026</v>
+        <v>0.97856410256410264</v>
       </c>
       <c r="C148">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D148">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E148">
-        <v>0.03853905884071796</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>3.8539058840717962E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.9785641025641026</v>
+        <v>0.97856410256410264</v>
       </c>
       <c r="C149">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D149">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E149">
-        <v>0.03853905884071796</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>3.8539058840717962E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3110,16 +5575,16 @@
         <v>0.9801709401709402</v>
       </c>
       <c r="C150">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D150">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E150">
-        <v>0.03088187309404002</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>3.0881873094040019E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3127,259 +5592,259 @@
         <v>0.9801709401709402</v>
       </c>
       <c r="C151">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D151">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E151">
-        <v>0.03088187309404002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>3.0881873094040019E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.9817777777777777</v>
+        <v>0.98177777777777775</v>
       </c>
       <c r="C152">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D152">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E152">
-        <v>0.02319937433662924</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>2.319937433662924E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.9817777777777777</v>
+        <v>0.98177777777777775</v>
       </c>
       <c r="C153">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D153">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E153">
-        <v>0.02319937433662924</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>2.319937433662924E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C154">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D154">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E154">
-        <v>0.01549156256848565</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>1.549156256848565E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C155">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D155">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E155">
-        <v>0.01549156256848565</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>1.549156256848565E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C156">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D156">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E156">
-        <v>0.01551687557921847</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>1.5516875579218469E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C157">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D157">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E157">
-        <v>0.007758437789609233</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>7.758437789609233E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C158">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D158">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E158">
-        <v>0.007758437789609233</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>7.758437789609233E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C159">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D159">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E159">
-        <v>0.007771094294975643</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>7.771094294975643E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C160">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D160">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E160">
-        <v>0.007771094294975643</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>7.771094294975643E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C161">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D161">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E161">
-        <v>0.007771094294975643</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>7.771094294975643E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C162">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D162">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E162">
-        <v>0.007783750800342053</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>7.7837508003420529E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C163">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D163">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E163">
-        <v>0.007771094294975643</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>7.771094294975643E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C164">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D164">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E164">
-        <v>0.007783750800342053</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>7.7837508003420529E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C165">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D165">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E165">
-        <v>0.007783750800342053</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>7.7837508003420529E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3391,46 +5856,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C167">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D167">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E167">
-        <v>0.007796407305708463</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>7.7964073057084629E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C168">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D168">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E168">
-        <v>0.007783750800342053</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>7.7837508003420529E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3442,46 +5907,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C170">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D170">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E170">
-        <v>0.007796407305708463</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>7.7964073057084629E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C171">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D171">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E171">
-        <v>0.007796407305708463</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>7.7964073057084629E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3493,12 +5958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3510,12 +5975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3527,12 +5992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3544,12 +6009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3561,12 +6026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3578,12 +6043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3595,12 +6060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3612,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3629,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3646,12 +6111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3663,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -3680,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3697,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -3714,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3731,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3748,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3765,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3782,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3799,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3816,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3833,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3850,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3867,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3884,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3901,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3918,12 +6383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3935,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3952,12 +6417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3969,12 +6434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3986,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4003,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4020,12 +6485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4037,12 +6502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -4054,12 +6519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4071,12 +6536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4088,12 +6553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4105,12 +6570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4122,12 +6587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4139,12 +6604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4156,12 +6621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4173,12 +6638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4190,12 +6655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4207,12 +6672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4224,12 +6689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4241,12 +6706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4258,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4275,12 +6740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4292,12 +6757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4309,12 +6774,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4326,12 +6791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4343,12 +6808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4360,12 +6825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4377,12 +6842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4394,12 +6859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4411,12 +6876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4428,12 +6893,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4445,12 +6910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4462,12 +6927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4479,12 +6944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4496,12 +6961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4513,12 +6978,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4530,12 +6995,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4547,12 +7012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4564,12 +7029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4581,12 +7046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4598,12 +7063,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4615,12 +7080,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4632,12 +7097,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -4649,12 +7114,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4666,12 +7131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4683,12 +7148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4700,12 +7165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4717,12 +7182,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4734,12 +7199,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.9930256410256411</v>
+        <v>0.99302564102564106</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4751,12 +7216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4768,12 +7233,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4785,12 +7250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4802,12 +7267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4819,12 +7284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4836,12 +7301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4853,12 +7318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4870,12 +7335,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4887,12 +7352,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4904,12 +7369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -4921,12 +7386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4940,5 +7405,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>